--- a/outputs-HGR-r202/g__Staphylococcus.xlsx
+++ b/outputs-HGR-r202/g__Staphylococcus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,26 +799,26 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1527.fa</t>
+          <t>even_MAG-GUT1516.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3218049062833225</v>
+        <v>0.3170225851245936</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2075680253298759</v>
+        <v>0.2096660521011841</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0293806664432196</v>
+        <v>0.02947775913841645</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3040853503676026</v>
+        <v>0.307373549041029</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1371610515759794</v>
+        <v>0.1364600545947771</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3218049062833225</v>
+        <v>0.3170225851245936</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -834,26 +834,26 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1578.fa</t>
+          <t>even_MAG-GUT1527.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3233637365919738</v>
+        <v>0.3218049062833225</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2087178671356032</v>
+        <v>0.2075680253298759</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02957535337638267</v>
+        <v>0.0293806664432196</v>
       </c>
       <c r="E12" t="n">
-        <v>0.306817277927433</v>
+        <v>0.3040853503676026</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1315257649686074</v>
+        <v>0.1371610515759794</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3233637365919738</v>
+        <v>0.3218049062833225</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -869,26 +869,26 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1894.fa</t>
+          <t>even_MAG-GUT1578.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3202888409169036</v>
+        <v>0.3233637365919738</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2092621271712028</v>
+        <v>0.2087178671356032</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0294525828422318</v>
+        <v>0.02957535337638267</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3064635245752289</v>
+        <v>0.306817277927433</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1345329244944329</v>
+        <v>0.1315257649686074</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3202888409169036</v>
+        <v>0.3233637365919738</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -904,26 +904,26 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1915.fa</t>
+          <t>even_MAG-GUT1894.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3164139298593315</v>
+        <v>0.3202888409169036</v>
       </c>
       <c r="C14" t="n">
-        <v>0.209980902645154</v>
+        <v>0.2092621271712028</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02877274383087858</v>
+        <v>0.0294525828422318</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3073544814403124</v>
+        <v>0.3064635245752289</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1374779422243235</v>
+        <v>0.1345329244944329</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3164139298593315</v>
+        <v>0.3202888409169036</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -939,26 +939,26 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3474.fa</t>
+          <t>even_MAG-GUT1915.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3211477867703402</v>
+        <v>0.3164139298593315</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2098903570421524</v>
+        <v>0.209980902645154</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02937797290434683</v>
+        <v>0.02877274383087858</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3077643170479073</v>
+        <v>0.3073544814403124</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1318195662352532</v>
+        <v>0.1374779422243235</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3211477867703402</v>
+        <v>0.3164139298593315</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -974,26 +974,26 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43402.fa</t>
+          <t>even_MAG-GUT3474.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3188985257661715</v>
+        <v>0.3211477867703402</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2115520759328543</v>
+        <v>0.2098903570421524</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03023211150183304</v>
+        <v>0.02937797290434683</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3101310060106381</v>
+        <v>0.3077643170479073</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1291862807885031</v>
+        <v>0.1318195662352532</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3188985257661715</v>
+        <v>0.3211477867703402</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1009,26 +1009,26 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43491.fa</t>
+          <t>even_MAG-GUT3480.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.328066680608384</v>
+        <v>0.3213536056248614</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2065140231314627</v>
+        <v>0.2095539381599374</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02880394216693198</v>
+        <v>0.02970585288491479</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3040555022739955</v>
+        <v>0.3069443139347367</v>
       </c>
       <c r="F17" t="n">
-        <v>0.132559851819226</v>
+        <v>0.1324422893955498</v>
       </c>
       <c r="G17" t="n">
-        <v>0.328066680608384</v>
+        <v>0.3213536056248614</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1044,26 +1044,26 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43515.fa</t>
+          <t>even_MAG-GUT43402.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3222392523380698</v>
+        <v>0.3188985257661715</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2073180183694528</v>
+        <v>0.2115520759328543</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02814682313388167</v>
+        <v>0.03023211150183304</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3043528199639198</v>
+        <v>0.3101310060106381</v>
       </c>
       <c r="F18" t="n">
-        <v>0.137943086194676</v>
+        <v>0.1291862807885031</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3222392523380698</v>
+        <v>0.3188985257661715</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1079,26 +1079,26 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45687.fa</t>
+          <t>even_MAG-GUT43491.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3152546110780488</v>
+        <v>0.328066680608384</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2092858997310321</v>
+        <v>0.2065140231314627</v>
       </c>
       <c r="D19" t="n">
-        <v>0.02887406437313195</v>
+        <v>0.02880394216693198</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3059648562948548</v>
+        <v>0.3040555022739955</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1406205685229325</v>
+        <v>0.132559851819226</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3152546110780488</v>
+        <v>0.328066680608384</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1114,26 +1114,26 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47637.fa</t>
+          <t>even_MAG-GUT43515.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3170792148126314</v>
+        <v>0.3222392523380698</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2100880074779916</v>
+        <v>0.2073180183694528</v>
       </c>
       <c r="D20" t="n">
-        <v>0.02894320474381987</v>
+        <v>0.02814682313388167</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3080808159805892</v>
+        <v>0.3043528199639198</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1358087569849679</v>
+        <v>0.137943086194676</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3170792148126314</v>
+        <v>0.3222392523380698</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1149,26 +1149,26 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47723.fa</t>
+          <t>even_MAG-GUT44179.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3258215920421416</v>
+        <v>0.3095555765117791</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2087669807497474</v>
+        <v>0.2109176009661573</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02944424137328749</v>
+        <v>0.02953486119543153</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3067182226320642</v>
+        <v>0.3069991512861376</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1292489632027594</v>
+        <v>0.1429928100404943</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3258215920421416</v>
+        <v>0.3095555765117791</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1184,26 +1184,26 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47782.fa</t>
+          <t>even_MAG-GUT45687.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3232002920321507</v>
+        <v>0.3152546110780488</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2096112600979254</v>
+        <v>0.2092858997310321</v>
       </c>
       <c r="D22" t="n">
-        <v>0.02979891042084696</v>
+        <v>0.02887406437313195</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3073331395837126</v>
+        <v>0.3059648562948548</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1300563978653645</v>
+        <v>0.1406205685229325</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3232002920321507</v>
+        <v>0.3152546110780488</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1219,26 +1219,26 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48940.fa</t>
+          <t>even_MAG-GUT47637.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3177196817076713</v>
+        <v>0.3170792148126314</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2090628670090317</v>
+        <v>0.2100880074779916</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02974069215253929</v>
+        <v>0.02894320474381987</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3067087942814126</v>
+        <v>0.3080808159805892</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1367679648493452</v>
+        <v>0.1358087569849679</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3177196817076713</v>
+        <v>0.3170792148126314</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1254,26 +1254,26 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49005.fa</t>
+          <t>even_MAG-GUT47723.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3233858310239682</v>
+        <v>0.3258215920421416</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2083836617592983</v>
+        <v>0.2087669807497474</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02978916780127642</v>
+        <v>0.02944424137328749</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3052348858573003</v>
+        <v>0.3067182226320642</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1332064535581567</v>
+        <v>0.1292489632027594</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3233858310239682</v>
+        <v>0.3258215920421416</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1289,26 +1289,26 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91199.fa</t>
+          <t>even_MAG-GUT47782.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3204799229920823</v>
+        <v>0.3232002920321507</v>
       </c>
       <c r="C25" t="n">
-        <v>0.210280738536945</v>
+        <v>0.2096112600979254</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02880346933158184</v>
+        <v>0.02979891042084696</v>
       </c>
       <c r="E25" t="n">
-        <v>0.30708947736179</v>
+        <v>0.3073331395837126</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1333463917776009</v>
+        <v>0.1300563978653645</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3204799229920823</v>
+        <v>0.3232002920321507</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1324,26 +1324,26 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91265.fa</t>
+          <t>even_MAG-GUT48571.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3232605464785993</v>
+        <v>0.3203450303053459</v>
       </c>
       <c r="C26" t="n">
-        <v>0.207172392491054</v>
+        <v>0.2085488768930769</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02961419914437882</v>
+        <v>0.02907907470510709</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3046190112689629</v>
+        <v>0.3052636333637425</v>
       </c>
       <c r="F26" t="n">
-        <v>0.135333850617005</v>
+        <v>0.1367633847327276</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3232605464785993</v>
+        <v>0.3203450303053459</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1359,26 +1359,26 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91359.fa</t>
+          <t>even_MAG-GUT48940.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3283694720320651</v>
+        <v>0.3177196817076713</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2062631283553696</v>
+        <v>0.2090628670090317</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02921703790609073</v>
+        <v>0.02974069215253929</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3041680175648593</v>
+        <v>0.3067087942814126</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1319823441416152</v>
+        <v>0.1367679648493452</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3283694720320651</v>
+        <v>0.3177196817076713</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1394,26 +1394,26 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91379.fa</t>
+          <t>even_MAG-GUT49005.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.329544449881068</v>
+        <v>0.3233858310239682</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2086124977012232</v>
+        <v>0.2083836617592983</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02973521841670197</v>
+        <v>0.02978916780127642</v>
       </c>
       <c r="E28" t="n">
-        <v>0.305309826975688</v>
+        <v>0.3052348858573003</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1267980070253189</v>
+        <v>0.1332064535581567</v>
       </c>
       <c r="G28" t="n">
-        <v>0.329544449881068</v>
+        <v>0.3233858310239682</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1429,26 +1429,26 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91432.fa</t>
+          <t>even_MAG-GUT49071.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3241578198394811</v>
+        <v>0.3139559093607241</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2086962575195406</v>
+        <v>0.2105452506952581</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02931967995586495</v>
+        <v>0.02901129165011149</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3058185268196777</v>
+        <v>0.3062367159663479</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1320077158654357</v>
+        <v>0.1402508323275583</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3241578198394811</v>
+        <v>0.3139559093607241</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1464,26 +1464,26 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91493.fa</t>
+          <t>even_MAG-GUT91199.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3248836170116286</v>
+        <v>0.3204799229920823</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2080084824490402</v>
+        <v>0.210280738536945</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02936019220483907</v>
+        <v>0.02880346933158184</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3045992973694006</v>
+        <v>0.30708947736179</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1331484109650915</v>
+        <v>0.1333463917776009</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3248836170116286</v>
+        <v>0.3204799229920823</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1499,26 +1499,26 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91537.fa</t>
+          <t>even_MAG-GUT91265.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3234415206284219</v>
+        <v>0.3232605464785993</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2109543792150171</v>
+        <v>0.207172392491054</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0301225161501742</v>
+        <v>0.02961419914437882</v>
       </c>
       <c r="E31" t="n">
-        <v>0.307577714468468</v>
+        <v>0.3046190112689629</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1279038695379187</v>
+        <v>0.135333850617005</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3234415206284219</v>
+        <v>0.3232605464785993</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1534,26 +1534,26 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91584.fa</t>
+          <t>even_MAG-GUT91359.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3258219058630126</v>
+        <v>0.3283694720320651</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2074219418519279</v>
+        <v>0.2062631283553696</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02912329162460682</v>
+        <v>0.02921703790609073</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3048390985636777</v>
+        <v>0.3041680175648593</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1327937620967748</v>
+        <v>0.1319823441416152</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3258219058630126</v>
+        <v>0.3283694720320651</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1569,26 +1569,26 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91622.fa</t>
+          <t>even_MAG-GUT91370.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3221761507202462</v>
+        <v>0.3212727608858456</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2083832587751076</v>
+        <v>0.2094390002171413</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02897484770645081</v>
+        <v>0.03017894426283428</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3056423951738912</v>
+        <v>0.3063319076774452</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1348233476243041</v>
+        <v>0.1327773869567337</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3221761507202462</v>
+        <v>0.3212727608858456</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1604,26 +1604,26 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91705.fa</t>
+          <t>even_MAG-GUT91379.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3292204312033252</v>
+        <v>0.329544449881068</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2062994316129768</v>
+        <v>0.2086124977012232</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0288334354892771</v>
+        <v>0.02973521841670197</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3033711619699159</v>
+        <v>0.305309826975688</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1322755397245051</v>
+        <v>0.1267980070253189</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3292204312033252</v>
+        <v>0.329544449881068</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1639,26 +1639,26 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91816.fa</t>
+          <t>even_MAG-GUT91430.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3144961970742914</v>
+        <v>0.316396661155512</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2100275915200167</v>
+        <v>0.2094601251595041</v>
       </c>
       <c r="D35" t="n">
-        <v>0.02899506594756283</v>
+        <v>0.02908902420937707</v>
       </c>
       <c r="E35" t="n">
-        <v>0.306077904368243</v>
+        <v>0.306268826910738</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1404032410898861</v>
+        <v>0.1387853625648688</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3144961970742914</v>
+        <v>0.316396661155512</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1674,26 +1674,26 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91830.fa</t>
+          <t>even_MAG-GUT91432.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3198026985498911</v>
+        <v>0.3241578198394811</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2086116307582483</v>
+        <v>0.2086962575195406</v>
       </c>
       <c r="D36" t="n">
-        <v>0.02838431950884399</v>
+        <v>0.02931967995586495</v>
       </c>
       <c r="E36" t="n">
-        <v>0.305593901201937</v>
+        <v>0.3058185268196777</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1376074499810795</v>
+        <v>0.1320077158654357</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3198026985498911</v>
+        <v>0.3241578198394811</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1709,26 +1709,26 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91887.fa</t>
+          <t>even_MAG-GUT91493.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3250025989160847</v>
+        <v>0.3248836170116286</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2085228143134156</v>
+        <v>0.2080084824490402</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02940531117677769</v>
+        <v>0.02936019220483907</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3052571377099472</v>
+        <v>0.3045992973694006</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1318121378837748</v>
+        <v>0.1331484109650915</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3250025989160847</v>
+        <v>0.3248836170116286</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1744,26 +1744,26 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91939.fa</t>
+          <t>even_MAG-GUT91537.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3296083671197702</v>
+        <v>0.3234415206284219</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2078714206687266</v>
+        <v>0.2109543792150171</v>
       </c>
       <c r="D38" t="n">
-        <v>0.02909618669068465</v>
+        <v>0.0301225161501742</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3042797921419735</v>
+        <v>0.307577714468468</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1291442333788451</v>
+        <v>0.1279038695379187</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3296083671197702</v>
+        <v>0.3234415206284219</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1779,33 +1779,278 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT91584.fa</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.3258219058630126</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.2074219418519279</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.02912329162460682</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.3048390985636777</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.1327937620967748</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.3258219058630126</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91622.fa</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.3221761507202462</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.2083832587751076</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.02897484770645081</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.3056423951738912</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.1348233476243041</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.3221761507202462</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91705.fa</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.3292204312033252</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.2062994316129768</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.0288334354892771</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.3033711619699159</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.1322755397245051</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.3292204312033252</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91816.fa</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.3144961970742914</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.2100275915200167</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.02899506594756283</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.306077904368243</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.1404032410898861</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.3144961970742914</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91830.fa</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.3198026985498911</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.2086116307582483</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.02838431950884399</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.305593901201937</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.1376074499810795</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.3198026985498911</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91887.fa</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.3250025989160847</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.2085228143134156</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.02940531117677769</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.3052571377099472</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.1318121378837748</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.3250025989160847</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91939.fa</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.3296083671197702</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.2078714206687266</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.02909618669068465</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.3042797921419735</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.1291442333788451</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.3296083671197702</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT91958.fa</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B46" t="n">
         <v>0.3233748747868546</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C46" t="n">
         <v>0.2076093186932175</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D46" t="n">
         <v>0.0294123346715633</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E46" t="n">
         <v>0.3056949305516945</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F46" t="n">
         <v>0.1339085412966702</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G46" t="n">
         <v>0.3233748747868546</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>s__Staphylococcus epidermidis</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>s__Staphylococcus epidermidis(reject)</t>
         </is>

--- a/outputs-HGR-r202/g__Staphylococcus.xlsx
+++ b/outputs-HGR-r202/g__Staphylococcus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -535,6 +545,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -565,6 +580,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -595,6 +615,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -625,6 +650,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -655,6 +685,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -685,6 +720,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -715,6 +755,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -745,6 +790,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -775,6 +825,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -805,6 +860,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -835,6 +895,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -865,6 +930,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -895,6 +965,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -925,6 +1000,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -955,6 +1035,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -985,6 +1070,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1015,6 +1105,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1045,6 +1140,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1075,6 +1175,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1105,6 +1210,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1135,6 +1245,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1165,6 +1280,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1195,6 +1315,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1225,6 +1350,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1255,6 +1385,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1285,6 +1420,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1315,6 +1455,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1345,6 +1490,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1375,6 +1525,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1405,6 +1560,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1435,6 +1595,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1465,6 +1630,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1495,6 +1665,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1525,6 +1700,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1555,6 +1735,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1585,6 +1770,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1615,6 +1805,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1645,6 +1840,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1675,6 +1875,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1705,6 +1910,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1735,6 +1945,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1765,6 +1980,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1795,6 +2015,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1825,6 +2050,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1855,6 +2085,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1885,6 +2120,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1915,6 +2155,11 @@
           <t>s__Staphylococcus epidermidis</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1941,6 +2186,11 @@
         <v>0.3173380688766228</v>
       </c>
       <c r="H50" t="inlineStr">
+        <is>
+          <t>s__Staphylococcus epidermidis</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>s__Staphylococcus epidermidis</t>
         </is>
